--- a/docs/shrcore/shr-core-ValueSet-model.xlsx
+++ b/docs/shrcore/shr-core-ValueSet-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="106">
   <si>
     <t>Path</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>The country, state or other region taking legal responsibility.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
   </si>
   <si>
     <t>shr-core-ValueSet-model.isImmutable</t>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2439,13 +2445,11 @@
         <v>36</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>36</v>
@@ -2480,7 +2484,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2506,10 +2510,10 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2560,7 +2564,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -2577,7 +2581,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2657,7 +2661,7 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>
@@ -2674,7 +2678,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2700,10 +2704,10 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2754,7 +2758,7 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
@@ -2771,7 +2775,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2797,10 +2801,10 @@
         <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2851,7 +2855,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -2868,7 +2872,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2891,13 +2895,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2948,7 +2952,7 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
@@ -2965,7 +2969,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -2988,13 +2992,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3045,7 +3049,7 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
